--- a/excel/2020-07-03-13-05-48.xlsx
+++ b/excel/2020-07-03-13-05-48.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github\Certificate_20200703\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github\Certificate_20200703\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55227C86-5B4F-483D-8DBD-A70589CB8807}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394CC3EC-B35B-467F-A094-D58E049AB41C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="144">
   <si>
     <t>Nama Lengkap (untuk di Sertifikat)</t>
   </si>
@@ -451,6 +451,12 @@
   </si>
   <si>
     <t>Seputar dunia jaringan, alasan saya memilih ini karena saya kurang tahu tentang dunia jaringan</t>
+  </si>
+  <si>
+    <t>andrinofiar@poltek-kampar.ac.id</t>
+  </si>
+  <si>
+    <t>Andri Nofiar. Am, S.Kom.,M.Kom</t>
   </si>
 </sst>
 </file>
@@ -489,10 +495,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -711,11 +718,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1304,6 +1311,14 @@
         <v>141</v>
       </c>
     </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel/2020-07-03-13-05-48.xlsx
+++ b/excel/2020-07-03-13-05-48.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github\Certificate_20200703\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394CC3EC-B35B-467F-A094-D58E049AB41C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67B4026-0A98-4F0B-9788-DA4969D044F1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="182">
   <si>
     <t>Nama Lengkap (untuk di Sertifikat)</t>
   </si>
@@ -457,6 +457,120 @@
   </si>
   <si>
     <t>Andri Nofiar. Am, S.Kom.,M.Kom</t>
+  </si>
+  <si>
+    <t>001/PK.1/Sert/BAAK-AKD/06.2020</t>
+  </si>
+  <si>
+    <t>Ma'shum Abdul Jabbar</t>
+  </si>
+  <si>
+    <t>multimediary@gmail.com</t>
+  </si>
+  <si>
+    <t>\N</t>
+  </si>
+  <si>
+    <t>Sebagai</t>
+  </si>
+  <si>
+    <t>SPEAKER</t>
+  </si>
+  <si>
+    <t>Nomor Sertifikat</t>
+  </si>
+  <si>
+    <t>002/PK.1/Sert/BAAK-AKD/06.2020</t>
+  </si>
+  <si>
+    <t>003/PK.1/Sert/BAAK-AKD/06.2020</t>
+  </si>
+  <si>
+    <t>004/PK.1/Sert/BAAK-AKD/06.2020</t>
+  </si>
+  <si>
+    <t>005/PK.1/Sert/BAAK-AKD/06.2020</t>
+  </si>
+  <si>
+    <t>006/PK.1/Sert/BAAK-AKD/06.2020</t>
+  </si>
+  <si>
+    <t>007/PK.1/Sert/BAAK-AKD/06.2020</t>
+  </si>
+  <si>
+    <t>008/PK.1/Sert/BAAK-AKD/06.2020</t>
+  </si>
+  <si>
+    <t>009/PK.1/Sert/BAAK-AKD/06.2020</t>
+  </si>
+  <si>
+    <t>010/PK.1/Sert/BAAK-AKD/06.2020</t>
+  </si>
+  <si>
+    <t>011/PK.1/Sert/BAAK-AKD/06.2020</t>
+  </si>
+  <si>
+    <t>012/PK.1/Sert/BAAK-AKD/06.2020</t>
+  </si>
+  <si>
+    <t>013/PK.1/Sert/BAAK-AKD/06.2020</t>
+  </si>
+  <si>
+    <t>014/PK.1/Sert/BAAK-AKD/06.2020</t>
+  </si>
+  <si>
+    <t>015/PK.1/Sert/BAAK-AKD/06.2020</t>
+  </si>
+  <si>
+    <t>016/PK.1/Sert/BAAK-AKD/06.2020</t>
+  </si>
+  <si>
+    <t>017/PK.1/Sert/BAAK-AKD/06.2020</t>
+  </si>
+  <si>
+    <t>018/PK.1/Sert/BAAK-AKD/06.2020</t>
+  </si>
+  <si>
+    <t>019/PK.1/Sert/BAAK-AKD/06.2020</t>
+  </si>
+  <si>
+    <t>020/PK.1/Sert/BAAK-AKD/06.2020</t>
+  </si>
+  <si>
+    <t>021/PK.1/Sert/BAAK-AKD/06.2020</t>
+  </si>
+  <si>
+    <t>022/PK.1/Sert/BAAK-AKD/06.2020</t>
+  </si>
+  <si>
+    <t>023/PK.1/Sert/BAAK-AKD/06.2020</t>
+  </si>
+  <si>
+    <t>024/PK.1/Sert/BAAK-AKD/06.2020</t>
+  </si>
+  <si>
+    <t>025/PK.1/Sert/BAAK-AKD/06.2020</t>
+  </si>
+  <si>
+    <t>026/PK.1/Sert/BAAK-AKD/06.2020</t>
+  </si>
+  <si>
+    <t>027/PK.1/Sert/BAAK-AKD/06.2020</t>
+  </si>
+  <si>
+    <t>028/PK.1/Sert/BAAK-AKD/06.2020</t>
+  </si>
+  <si>
+    <t>029/PK.1/Sert/BAAK-AKD/06.2020</t>
+  </si>
+  <si>
+    <t>030/PK.1/Sert/BAAK-AKD/06.2020</t>
+  </si>
+  <si>
+    <t>PARTICIPANT</t>
+  </si>
+  <si>
+    <t>MODERATOR</t>
   </si>
 </sst>
 </file>
@@ -483,7 +597,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -491,15 +605,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -718,604 +848,812 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" customWidth="1"/>
-    <col min="2" max="2" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="255.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="124.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="21.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="255.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="124.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="14.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2">
+      <c r="E3" s="4">
         <v>201913037</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C4" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2">
+      <c r="E4" s="4">
         <v>201913044</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C5" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2">
+      <c r="E5" s="4">
         <v>201913025</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="G5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="H5" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C6" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="2">
+      <c r="E6" s="4">
         <v>201913026</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="H6" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C7" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="2">
+      <c r="E7" s="4">
         <v>201913023</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="F7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="G7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="H7" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C8" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="2">
+      <c r="E8" s="4">
         <v>201913038</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="F8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="G8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="H8" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C9" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="2">
+      <c r="E9" s="4">
         <v>201913043</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="F9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H9" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C10" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="E10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="F10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="G10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="H10" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C11" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="2">
+      <c r="E11" s="4">
         <v>201913030</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="F11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="G11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="H11" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C12" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="2">
+      <c r="E12" s="4">
         <v>201913018</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="F12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="G12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="H12" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C13" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="2">
+      <c r="E13" s="4">
         <v>201913040</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="F13" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="G13" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="H13" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="2">
+      <c r="E14" s="4">
         <v>201913022</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="F14" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="G14" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="H14" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C15" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="2">
+      <c r="E15" s="4">
         <v>201913016</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="F15" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="G15" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="H15" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C16" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="2">
+      <c r="E16" s="4">
         <v>201913027</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="F16" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="G16" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="H16" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C17" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="2">
+      <c r="E17" s="4">
         <v>200713006</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="F17" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="G17" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="H17" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C18" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="2">
+      <c r="E18" s="4">
         <v>201913034</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="F18" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="G18" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="H18" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C19" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="2">
+      <c r="E19" s="4">
         <v>201913041</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="F19" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="G19" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="H19" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="2">
+      <c r="E20" s="4">
         <v>201913020</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="F20" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="G20" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="H20" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="2">
+      <c r="E21" s="4">
         <v>201913031</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="F21" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="G21" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="H21" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C22" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="2">
+      <c r="E22" s="4">
         <v>201913033</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="F22" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="G22" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="H22" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="23" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C23" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="2">
+      <c r="E23" s="4">
         <v>201913036</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="F23" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="G23" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="H23" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="24" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C24" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="2">
+      <c r="E24" s="4">
         <v>201913028</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="F24" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="G24" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="H24" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="25" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C25" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="2">
+      <c r="E25" s="4">
         <v>201913029</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="F25" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="G25" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="H25" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="26" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C26" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="2">
+      <c r="E26" s="4">
         <v>201913014</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="F26" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="G26" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="H26" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C27" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C26" s="2">
+      <c r="E27" s="4">
         <v>201913035</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="F27" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="G27" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="H27" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="28" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C28" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="F28" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="G28" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="H28" s="4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="29" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C29" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="2">
+      <c r="E29" s="4">
         <v>201913023</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="F29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="G29" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="H29" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="30" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C30" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C29" s="2">
+      <c r="E30" s="4">
         <v>201913021</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="F30" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="G30" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="H30" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="C31" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>142</v>
       </c>
     </row>
